--- a/딥러닝 기반 반려견 치아 건강 예측 프로젝트 gantt-chart.xlsx
+++ b/딥러닝 기반 반려견 치아 건강 예측 프로젝트 gantt-chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5194d33afecd89e7/바탕 화면/학교공부/3학년/2학기/종합설계프로젝트1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hwang\Desktop\학교 파일\20222\종합 설계 프로젝트\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{091576B6-1928-456B-B4DD-C877002D6E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CA943B6-DDE6-4561-A5F0-08322C0AC8A1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16AB681A-FE98-434F-9E4F-679516494149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GanttChart" sheetId="9" r:id="rId1"/>
@@ -33,9 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2904,24 +2902,6 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="45" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2929,9 +2909,27 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="45" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="179" fontId="45" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="45" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="45" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3118,13 +3116,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>144145</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>135890</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>80433</xdr:rowOff>
+      <xdr:rowOff>79163</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3177,13 +3175,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
-          <xdr:colOff>95250</xdr:colOff>
+          <xdr:colOff>99060</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>121920</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>27</xdr:col>
-          <xdr:colOff>104775</xdr:colOff>
+          <xdr:colOff>107950</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -4348,24 +4346,24 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="51.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" customWidth="1"/>
-    <col min="10" max="10" width="1.85546875" customWidth="1"/>
-    <col min="11" max="66" width="2.42578125" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.44140625" customWidth="1"/>
+    <col min="10" max="10" width="1.88671875" customWidth="1"/>
+    <col min="11" max="66" width="2.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:66" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="81" t="s">
         <v>146</v>
       </c>
@@ -4375,31 +4373,31 @@
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
       <c r="I1" s="86"/>
-      <c r="K1" s="120" t="s">
+      <c r="K1" s="114" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="120"/>
-      <c r="T1" s="120"/>
-      <c r="U1" s="120"/>
-      <c r="V1" s="120"/>
-      <c r="W1" s="120"/>
-      <c r="X1" s="120"/>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="120"/>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="120"/>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-    </row>
-    <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+    </row>
+    <row r="2" spans="1:66" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>131</v>
       </c>
@@ -4410,7 +4408,7 @@
       <c r="F2" s="110"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:66" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:66" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="31"/>
       <c r="B3" s="2"/>
       <c r="H3" s="1"/>
@@ -4432,16 +4430,16 @@
       <c r="Z3" s="18"/>
       <c r="AA3" s="18"/>
     </row>
-    <row r="4" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="71"/>
       <c r="B4" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="122">
+      <c r="C4" s="119">
         <v>44820</v>
       </c>
-      <c r="D4" s="122"/>
-      <c r="E4" s="122"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="119"/>
       <c r="F4" s="71"/>
       <c r="G4" s="72" t="s">
         <v>65</v>
@@ -4451,184 +4449,184 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="30"/>
-      <c r="K4" s="114" t="str">
+      <c r="K4" s="116" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 1</v>
       </c>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115"/>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="114" t="str">
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="118"/>
+      <c r="R4" s="116" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="S4" s="115"/>
-      <c r="T4" s="115"/>
-      <c r="U4" s="115"/>
-      <c r="V4" s="115"/>
-      <c r="W4" s="115"/>
-      <c r="X4" s="116"/>
-      <c r="Y4" s="114" t="str">
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="118"/>
+      <c r="Y4" s="116" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="Z4" s="115"/>
-      <c r="AA4" s="115"/>
-      <c r="AB4" s="115"/>
-      <c r="AC4" s="115"/>
-      <c r="AD4" s="115"/>
-      <c r="AE4" s="116"/>
-      <c r="AF4" s="114" t="str">
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="117"/>
+      <c r="AB4" s="117"/>
+      <c r="AC4" s="117"/>
+      <c r="AD4" s="117"/>
+      <c r="AE4" s="118"/>
+      <c r="AF4" s="116" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="AG4" s="115"/>
-      <c r="AH4" s="115"/>
-      <c r="AI4" s="115"/>
-      <c r="AJ4" s="115"/>
-      <c r="AK4" s="115"/>
-      <c r="AL4" s="116"/>
-      <c r="AM4" s="114" t="str">
+      <c r="AG4" s="117"/>
+      <c r="AH4" s="117"/>
+      <c r="AI4" s="117"/>
+      <c r="AJ4" s="117"/>
+      <c r="AK4" s="117"/>
+      <c r="AL4" s="118"/>
+      <c r="AM4" s="116" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AN4" s="115"/>
-      <c r="AO4" s="115"/>
-      <c r="AP4" s="115"/>
-      <c r="AQ4" s="115"/>
-      <c r="AR4" s="115"/>
-      <c r="AS4" s="116"/>
-      <c r="AT4" s="114" t="str">
+      <c r="AN4" s="117"/>
+      <c r="AO4" s="117"/>
+      <c r="AP4" s="117"/>
+      <c r="AQ4" s="117"/>
+      <c r="AR4" s="117"/>
+      <c r="AS4" s="118"/>
+      <c r="AT4" s="116" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AU4" s="115"/>
-      <c r="AV4" s="115"/>
-      <c r="AW4" s="115"/>
-      <c r="AX4" s="115"/>
-      <c r="AY4" s="115"/>
-      <c r="AZ4" s="116"/>
-      <c r="BA4" s="114" t="str">
+      <c r="AU4" s="117"/>
+      <c r="AV4" s="117"/>
+      <c r="AW4" s="117"/>
+      <c r="AX4" s="117"/>
+      <c r="AY4" s="117"/>
+      <c r="AZ4" s="118"/>
+      <c r="BA4" s="116" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="BB4" s="115"/>
-      <c r="BC4" s="115"/>
-      <c r="BD4" s="115"/>
-      <c r="BE4" s="115"/>
-      <c r="BF4" s="115"/>
-      <c r="BG4" s="116"/>
-      <c r="BH4" s="114" t="str">
+      <c r="BB4" s="117"/>
+      <c r="BC4" s="117"/>
+      <c r="BD4" s="117"/>
+      <c r="BE4" s="117"/>
+      <c r="BF4" s="117"/>
+      <c r="BG4" s="118"/>
+      <c r="BH4" s="116" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BI4" s="115"/>
-      <c r="BJ4" s="115"/>
-      <c r="BK4" s="115"/>
-      <c r="BL4" s="115"/>
-      <c r="BM4" s="115"/>
-      <c r="BN4" s="116"/>
-    </row>
-    <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BI4" s="117"/>
+      <c r="BJ4" s="117"/>
+      <c r="BK4" s="117"/>
+      <c r="BL4" s="117"/>
+      <c r="BM4" s="117"/>
+      <c r="BN4" s="118"/>
+    </row>
+    <row r="5" spans="1:66" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="71"/>
       <c r="B5" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="115" t="s">
         <v>130</v>
       </c>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
       <c r="F5" s="71"/>
       <c r="G5" s="71"/>
       <c r="H5" s="71"/>
       <c r="I5" s="71"/>
       <c r="J5" s="30"/>
-      <c r="K5" s="117">
+      <c r="K5" s="120">
         <f>K6</f>
         <v>44816</v>
       </c>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
-      <c r="P5" s="118"/>
-      <c r="Q5" s="119"/>
-      <c r="R5" s="117">
+      <c r="L5" s="121"/>
+      <c r="M5" s="121"/>
+      <c r="N5" s="121"/>
+      <c r="O5" s="121"/>
+      <c r="P5" s="121"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="120">
         <f>R6</f>
         <v>44823</v>
       </c>
-      <c r="S5" s="118"/>
-      <c r="T5" s="118"/>
-      <c r="U5" s="118"/>
-      <c r="V5" s="118"/>
-      <c r="W5" s="118"/>
-      <c r="X5" s="119"/>
-      <c r="Y5" s="117">
+      <c r="S5" s="121"/>
+      <c r="T5" s="121"/>
+      <c r="U5" s="121"/>
+      <c r="V5" s="121"/>
+      <c r="W5" s="121"/>
+      <c r="X5" s="122"/>
+      <c r="Y5" s="120">
         <f>Y6</f>
         <v>44830</v>
       </c>
-      <c r="Z5" s="118"/>
-      <c r="AA5" s="118"/>
-      <c r="AB5" s="118"/>
-      <c r="AC5" s="118"/>
-      <c r="AD5" s="118"/>
-      <c r="AE5" s="119"/>
-      <c r="AF5" s="117">
+      <c r="Z5" s="121"/>
+      <c r="AA5" s="121"/>
+      <c r="AB5" s="121"/>
+      <c r="AC5" s="121"/>
+      <c r="AD5" s="121"/>
+      <c r="AE5" s="122"/>
+      <c r="AF5" s="120">
         <f>AF6</f>
         <v>44837</v>
       </c>
-      <c r="AG5" s="118"/>
-      <c r="AH5" s="118"/>
-      <c r="AI5" s="118"/>
-      <c r="AJ5" s="118"/>
-      <c r="AK5" s="118"/>
-      <c r="AL5" s="119"/>
-      <c r="AM5" s="117">
+      <c r="AG5" s="121"/>
+      <c r="AH5" s="121"/>
+      <c r="AI5" s="121"/>
+      <c r="AJ5" s="121"/>
+      <c r="AK5" s="121"/>
+      <c r="AL5" s="122"/>
+      <c r="AM5" s="120">
         <f>AM6</f>
         <v>44844</v>
       </c>
-      <c r="AN5" s="118"/>
-      <c r="AO5" s="118"/>
-      <c r="AP5" s="118"/>
-      <c r="AQ5" s="118"/>
-      <c r="AR5" s="118"/>
-      <c r="AS5" s="119"/>
-      <c r="AT5" s="117">
+      <c r="AN5" s="121"/>
+      <c r="AO5" s="121"/>
+      <c r="AP5" s="121"/>
+      <c r="AQ5" s="121"/>
+      <c r="AR5" s="121"/>
+      <c r="AS5" s="122"/>
+      <c r="AT5" s="120">
         <f>AT6</f>
         <v>44851</v>
       </c>
-      <c r="AU5" s="118"/>
-      <c r="AV5" s="118"/>
-      <c r="AW5" s="118"/>
-      <c r="AX5" s="118"/>
-      <c r="AY5" s="118"/>
-      <c r="AZ5" s="119"/>
-      <c r="BA5" s="117">
+      <c r="AU5" s="121"/>
+      <c r="AV5" s="121"/>
+      <c r="AW5" s="121"/>
+      <c r="AX5" s="121"/>
+      <c r="AY5" s="121"/>
+      <c r="AZ5" s="122"/>
+      <c r="BA5" s="120">
         <f>BA6</f>
         <v>44858</v>
       </c>
-      <c r="BB5" s="118"/>
-      <c r="BC5" s="118"/>
-      <c r="BD5" s="118"/>
-      <c r="BE5" s="118"/>
-      <c r="BF5" s="118"/>
-      <c r="BG5" s="119"/>
-      <c r="BH5" s="117">
+      <c r="BB5" s="121"/>
+      <c r="BC5" s="121"/>
+      <c r="BD5" s="121"/>
+      <c r="BE5" s="121"/>
+      <c r="BF5" s="121"/>
+      <c r="BG5" s="122"/>
+      <c r="BH5" s="120">
         <f>BH6</f>
         <v>44865</v>
       </c>
-      <c r="BI5" s="118"/>
-      <c r="BJ5" s="118"/>
-      <c r="BK5" s="118"/>
-      <c r="BL5" s="118"/>
-      <c r="BM5" s="118"/>
-      <c r="BN5" s="119"/>
-    </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
+      <c r="BI5" s="121"/>
+      <c r="BJ5" s="121"/>
+      <c r="BK5" s="121"/>
+      <c r="BL5" s="121"/>
+      <c r="BM5" s="121"/>
+      <c r="BN5" s="122"/>
+    </row>
+    <row r="6" spans="1:66" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="B6" s="30"/>
       <c r="C6" s="30"/>
@@ -4864,7 +4862,7 @@
         <v>44871</v>
       </c>
     </row>
-    <row r="7" spans="1:66" s="2" customFormat="1" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:66" s="2" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="74" t="s">
         <v>0</v>
       </c>
@@ -5118,7 +5116,7 @@
         <v>S</v>
       </c>
     </row>
-    <row r="8" spans="1:66" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:66" s="34" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
@@ -5197,7 +5195,7 @@
       <c r="BM8" s="69"/>
       <c r="BN8" s="69"/>
     </row>
-    <row r="9" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="str">
         <f t="shared" ref="A9:A24" si="5">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
@@ -5284,7 +5282,7 @@
       <c r="BM9" s="39"/>
       <c r="BN9" s="39"/>
     </row>
-    <row r="10" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="str">
         <f t="shared" ref="A10:A11" si="6">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
@@ -5371,7 +5369,7 @@
       <c r="BM10" s="39"/>
       <c r="BN10" s="39"/>
     </row>
-    <row r="11" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="str">
         <f t="shared" si="6"/>
         <v>1.1.2</v>
@@ -5458,7 +5456,7 @@
       <c r="BM11" s="39"/>
       <c r="BN11" s="39"/>
     </row>
-    <row r="12" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="str">
         <f t="shared" si="5"/>
         <v>1.2</v>
@@ -5545,7 +5543,7 @@
       <c r="BM12" s="39"/>
       <c r="BN12" s="39"/>
     </row>
-    <row r="13" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="str">
         <f t="shared" si="5"/>
         <v>1.3</v>
@@ -5632,7 +5630,7 @@
       <c r="BM13" s="39"/>
       <c r="BN13" s="39"/>
     </row>
-    <row r="14" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="str">
         <f t="shared" si="5"/>
         <v>1.4</v>
@@ -5720,7 +5718,7 @@
       <c r="BM14" s="39"/>
       <c r="BN14" s="39"/>
     </row>
-    <row r="15" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="str">
         <f t="shared" ref="A15:A22" si="11">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.4.1</v>
@@ -5807,7 +5805,7 @@
       <c r="BM15" s="39"/>
       <c r="BN15" s="39"/>
     </row>
-    <row r="16" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="str">
         <f t="shared" si="11"/>
         <v>1.4.2</v>
@@ -5894,7 +5892,7 @@
       <c r="BM16" s="39"/>
       <c r="BN16" s="39"/>
     </row>
-    <row r="17" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="str">
         <f t="shared" si="11"/>
         <v>1.4.3</v>
@@ -5981,7 +5979,7 @@
       <c r="BM17" s="39"/>
       <c r="BN17" s="39"/>
     </row>
-    <row r="18" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="str">
         <f t="shared" si="11"/>
         <v>1.4.4</v>
@@ -6068,7 +6066,7 @@
       <c r="BM18" s="39"/>
       <c r="BN18" s="39"/>
     </row>
-    <row r="19" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="str">
         <f t="shared" si="11"/>
         <v>1.4.5</v>
@@ -6155,7 +6153,7 @@
       <c r="BM19" s="39"/>
       <c r="BN19" s="39"/>
     </row>
-    <row r="20" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="str">
         <f t="shared" si="11"/>
         <v>1.4.6</v>
@@ -6242,7 +6240,7 @@
       <c r="BM20" s="39"/>
       <c r="BN20" s="39"/>
     </row>
-    <row r="21" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="str">
         <f t="shared" si="11"/>
         <v>1.4.7</v>
@@ -6329,7 +6327,7 @@
       <c r="BM21" s="39"/>
       <c r="BN21" s="39"/>
     </row>
-    <row r="22" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="str">
         <f t="shared" si="11"/>
         <v>1.4.8</v>
@@ -6416,7 +6414,7 @@
       <c r="BM22" s="39"/>
       <c r="BN22" s="39"/>
     </row>
-    <row r="23" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="str">
         <f t="shared" si="5"/>
         <v>1.5</v>
@@ -6503,7 +6501,7 @@
       <c r="BM23" s="39"/>
       <c r="BN23" s="39"/>
     </row>
-    <row r="24" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="str">
         <f t="shared" si="5"/>
         <v>1.6</v>
@@ -6527,7 +6525,7 @@
       </c>
       <c r="H24" s="42">
         <f>AVERAGE(H25:H28)</f>
-        <v>0.26574999999999999</v>
+        <v>0.19749999999999998</v>
       </c>
       <c r="I24" s="43">
         <f t="shared" ref="I24" si="15">IF(OR(F24=0,E24=0)," - ",NETWORKDAYS(E24,F24))</f>
@@ -6591,7 +6589,7 @@
       <c r="BM24" s="39"/>
       <c r="BN24" s="39"/>
     </row>
-    <row r="25" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.6.1</v>
@@ -6678,7 +6676,7 @@
       <c r="BM25" s="39"/>
       <c r="BN25" s="39"/>
     </row>
-    <row r="26" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.6.2</v>
@@ -6765,7 +6763,7 @@
       <c r="BM26" s="39"/>
       <c r="BN26" s="39"/>
     </row>
-    <row r="27" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.6.3</v>
@@ -6852,7 +6850,7 @@
       <c r="BM27" s="39"/>
       <c r="BN27" s="39"/>
     </row>
-    <row r="28" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.6.4</v>
@@ -6875,7 +6873,7 @@
         <v>22</v>
       </c>
       <c r="H28" s="42">
-        <v>0.97299999999999998</v>
+        <v>0.7</v>
       </c>
       <c r="I28" s="43">
         <f t="shared" si="13"/>
@@ -6939,7 +6937,7 @@
       <c r="BM28" s="39"/>
       <c r="BN28" s="39"/>
     </row>
-    <row r="29" spans="1:66" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:66" s="34" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="32" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
@@ -7017,7 +7015,7 @@
       <c r="BM29" s="70"/>
       <c r="BN29" s="70"/>
     </row>
-    <row r="30" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
@@ -7104,7 +7102,7 @@
       <c r="BM30" s="39"/>
       <c r="BN30" s="39"/>
     </row>
-    <row r="31" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.2</v>
@@ -7191,7 +7189,7 @@
       <c r="BM31" s="39"/>
       <c r="BN31" s="39"/>
     </row>
-    <row r="32" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.2.1</v>
@@ -7278,7 +7276,7 @@
       <c r="BM32" s="39"/>
       <c r="BN32" s="39"/>
     </row>
-    <row r="33" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.2.2</v>
@@ -7365,7 +7363,7 @@
       <c r="BM33" s="39"/>
       <c r="BN33" s="39"/>
     </row>
-    <row r="34" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="39" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.3</v>
@@ -7452,7 +7450,7 @@
       <c r="BM34" s="39"/>
       <c r="BN34" s="39"/>
     </row>
-    <row r="35" spans="1:66" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:66" s="34" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
@@ -7530,7 +7528,7 @@
       <c r="BM35" s="70"/>
       <c r="BN35" s="70"/>
     </row>
-    <row r="36" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A36" s="39" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
@@ -7617,7 +7615,7 @@
       <c r="BM36" s="39"/>
       <c r="BN36" s="39"/>
     </row>
-    <row r="37" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A37" s="39" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.2</v>
@@ -7705,7 +7703,7 @@
       <c r="BM37" s="39"/>
       <c r="BN37" s="39"/>
     </row>
-    <row r="38" spans="1:66" s="34" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:66" s="34" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>4</v>
@@ -7783,7 +7781,7 @@
       <c r="BM38" s="70"/>
       <c r="BN38" s="70"/>
     </row>
-    <row r="39" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.1</v>
@@ -7870,7 +7868,7 @@
       <c r="BM39" s="39"/>
       <c r="BN39" s="39"/>
     </row>
-    <row r="40" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A40" s="39" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.2</v>
@@ -7957,7 +7955,7 @@
       <c r="BM40" s="39"/>
       <c r="BN40" s="39"/>
     </row>
-    <row r="41" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A41" s="39" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>4.3</v>
@@ -8044,7 +8042,7 @@
       <c r="BM41" s="39"/>
       <c r="BN41" s="39"/>
     </row>
-    <row r="42" spans="1:66" s="40" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:66" s="40" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A42" s="39"/>
       <c r="B42" s="82"/>
       <c r="D42" s="83"/>
@@ -8111,7 +8109,7 @@
       <c r="BM42" s="39"/>
       <c r="BN42" s="39"/>
     </row>
-    <row r="43" spans="1:66" s="49" customFormat="1" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:66" s="49" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A43" s="39"/>
       <c r="B43" s="44"/>
       <c r="C43" s="44"/>
@@ -8185,15 +8183,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="K1:AE1"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="Y4:AE4"/>
-    <mergeCell ref="Y5:AE5"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AF5:AL5"/>
     <mergeCell ref="BH4:BN4"/>
@@ -8204,6 +8193,15 @@
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BA4:BG4"/>
     <mergeCell ref="BA5:BG5"/>
+    <mergeCell ref="K1:AE1"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="Y4:AE4"/>
+    <mergeCell ref="Y5:AE5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="H8:H43">
@@ -8263,13 +8261,13 @@
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>9</xdr:col>
-                    <xdr:colOff>95250</xdr:colOff>
+                    <xdr:colOff>99060</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>121920</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>27</xdr:col>
-                    <xdr:colOff>104775</xdr:colOff>
+                    <xdr:colOff>106680</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </to>
@@ -8316,173 +8314,172 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="3" max="3" width="55.140625" customWidth="1"/>
-    <col min="4" max="7" width="8.85546875"/>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
+    <col min="3" max="3" width="55.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C7" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C13" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B34" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B39" s="15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B42" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B46" s="13" t="s">
         <v>21</v>
       </c>
@@ -8509,68 +8506,68 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="90.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="5.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="90.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>111</v>
       </c>
       <c r="B1" s="25"/>
     </row>
-    <row r="2" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="92" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="87" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="16"/>
     </row>
-    <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B5" s="93" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B7" s="93" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B9" s="92" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B11" s="91" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" s="123" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="123"/>
     </row>
-    <row r="15" spans="1:3" s="88" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" s="88" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="95"/>
       <c r="B15" s="94" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="88" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" s="88" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="95"/>
       <c r="B16" s="94" t="s">
         <v>68</v>
@@ -8579,25 +8576,25 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" s="96"/>
       <c r="B17" s="94" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" s="96"/>
       <c r="B18" s="94" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" s="96"/>
       <c r="B19" s="94" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="88" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" s="88" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="95"/>
       <c r="B20" s="94" t="s">
         <v>69</v>
@@ -8606,144 +8603,144 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" s="96"/>
       <c r="B21" s="94" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" s="96"/>
       <c r="B22" s="97" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" s="96"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" s="123" t="s">
         <v>74</v>
       </c>
       <c r="B24" s="123"/>
     </row>
-    <row r="25" spans="1:3" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A25" s="96"/>
       <c r="B25" s="94" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" s="96"/>
       <c r="B26" s="94"/>
     </row>
-    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" s="96"/>
       <c r="B27" s="111" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A28" s="96"/>
       <c r="B28" s="94" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A29" s="96"/>
       <c r="B29" s="94" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" s="96"/>
       <c r="B30" s="94"/>
     </row>
-    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" s="96"/>
       <c r="B31" s="111" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A32" s="96"/>
       <c r="B32" s="94" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A33" s="96"/>
       <c r="B33" s="94" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="96"/>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A35" s="96"/>
       <c r="B35" s="94" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A36" s="96"/>
       <c r="B36" s="98" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="96"/>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" s="123" t="s">
         <v>8</v>
       </c>
       <c r="B38" s="123"/>
     </row>
-    <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B39" s="94" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B41" s="94" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B43" s="94" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B45" s="94" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B46" s="11"/>
     </row>
-    <row r="47" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B47" s="94" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A49" s="123" t="s">
         <v>6</v>
       </c>
       <c r="B49" s="123"/>
     </row>
-    <row r="50" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B50" s="94" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A52" s="99" t="s">
         <v>9</v>
       </c>
@@ -8751,7 +8748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A53" s="99" t="s">
         <v>11</v>
       </c>
@@ -8759,7 +8756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="99" t="s">
         <v>13</v>
       </c>
@@ -8767,19 +8764,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A55" s="91"/>
       <c r="B55" s="94" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A56" s="91"/>
       <c r="B56" s="94" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="99" t="s">
         <v>15</v>
       </c>
@@ -8787,19 +8784,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A58" s="91"/>
       <c r="B58" s="94" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A59" s="91"/>
       <c r="B59" s="94" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A60" s="99" t="s">
         <v>17</v>
       </c>
@@ -8807,13 +8804,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A61" s="91"/>
       <c r="B61" s="94" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A62" s="99" t="s">
         <v>97</v>
       </c>
@@ -8821,33 +8818,33 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A63" s="100"/>
       <c r="B63" s="94" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
     </row>
-    <row r="65" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A65" s="123" t="s">
         <v>7</v>
       </c>
       <c r="B65" s="123"/>
     </row>
-    <row r="66" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="B66" s="94" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A68" s="123" t="s">
         <v>4</v>
       </c>
       <c r="B68" s="123"/>
     </row>
-    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A69" s="106" t="s">
         <v>5</v>
       </c>
@@ -8855,17 +8852,17 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A70" s="100"/>
       <c r="B70" s="105" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A71" s="100"/>
       <c r="B71" s="101"/>
     </row>
-    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A72" s="106" t="s">
         <v>5</v>
       </c>
@@ -8873,17 +8870,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" ht="28.2" x14ac:dyDescent="0.25">
       <c r="A73" s="100"/>
       <c r="B73" s="105" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A74" s="100"/>
       <c r="B74" s="101"/>
     </row>
-    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A75" s="106" t="s">
         <v>5</v>
       </c>
@@ -8891,17 +8888,17 @@
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A76" s="100"/>
       <c r="B76" s="93" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A77" s="100"/>
       <c r="B77" s="100"/>
     </row>
-    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A78" s="106" t="s">
         <v>5</v>
       </c>
@@ -8909,17 +8906,17 @@
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A79" s="100"/>
       <c r="B79" s="93" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A80" s="100"/>
       <c r="B80" s="100"/>
     </row>
-    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A81" s="106" t="s">
         <v>5</v>
       </c>
@@ -8927,29 +8924,29 @@
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A82" s="100"/>
       <c r="B82" s="104" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" s="100"/>
       <c r="B83" s="104" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="100"/>
       <c r="B84" s="104" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A85" s="100"/>
       <c r="B85" s="103"/>
     </row>
-    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A86" s="106" t="s">
         <v>5</v>
       </c>
@@ -8957,29 +8954,29 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A87" s="100"/>
       <c r="B87" s="93" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="100"/>
       <c r="B88" s="102" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A89" s="100"/>
       <c r="B89" s="108" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A90" s="100"/>
       <c r="B90" s="100"/>
     </row>
-    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A91" s="106" t="s">
         <v>5</v>
       </c>
@@ -8987,13 +8984,13 @@
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A92" s="91"/>
       <c r="B92" s="104" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
         <v>51</v>
       </c>
@@ -9029,172 +9026,172 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="82.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="5.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="82.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>49</v>
       </c>
       <c r="B1" s="24"/>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="28"/>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="26"/>
       <c r="B3" s="21" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="27"/>
     </row>
-    <row r="4" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="23" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="8"/>
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="8"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="8" t="s">
         <v>52</v>
       </c>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="8"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:3" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="46.2" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
       <c r="B10" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="8"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="8" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="8"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="8" t="s">
         <v>55</v>
       </c>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="8"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:3" ht="30.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C16" s="7"/>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="8"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C18" s="7"/>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="22" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="7"/>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="10"/>
       <c r="C20" s="7"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="7"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
